--- a/Curso Programacion Orientada a Objetos/ESTUDIANTES POO.xlsx
+++ b/Curso Programacion Orientada a Objetos/ESTUDIANTES POO.xlsx
@@ -1,49 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaaguir\Documents\Desarrollo\Curso Programacion Orientada a Objetos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{349D7D3E-41E4-4557-8DD3-D9E981B881EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DAF52D-0F1E-43B5-8907-8C32DFAB39BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D9F3E1F8-A18D-4094-9AE0-0BA583254CE6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D9F3E1F8-A18D-4094-9AE0-0BA583254CE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$15</definedName>
     <definedName name="HTML_1">Sheet1!#REF!</definedName>
-    <definedName name="HTML_2">Sheet1!$A$1:$H$15</definedName>
-    <definedName name="HTML_all">Sheet1!$A$1:$H$15</definedName>
+    <definedName name="HTML_2">Sheet1!$A$1:$D$15</definedName>
+    <definedName name="HTML_all">Sheet1!$A$1:$D$15</definedName>
     <definedName name="HTML_tables">Sheet1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>Plan</t>
-  </si>
-  <si>
-    <t>Periodo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>Documento de Identidad</t>
   </si>
   <si>
-    <t>Codigo</t>
-  </si>
-  <si>
     <t>Programa</t>
   </si>
   <si>
@@ -53,9 +54,6 @@
     <t>Correo</t>
   </si>
   <si>
-    <t>2024-03</t>
-  </si>
-  <si>
     <t>INGENIERIA DE SISTEMAS</t>
   </si>
   <si>
@@ -147,13 +145,61 @@
   </si>
   <si>
     <t>dilson.hincapier@autonoma.edu.co</t>
+  </si>
+  <si>
+    <t>REPOSITORIO</t>
+  </si>
+  <si>
+    <t>https://github.com/JeronimoNarvaezM/TalleresPOO</t>
+  </si>
+  <si>
+    <t>https://github.com/NataliaVelez0903/Calculadora</t>
+  </si>
+  <si>
+    <t>https://github.com/LuisCarlosGallego16/TalleresPOO</t>
+  </si>
+  <si>
+    <t>https://github.com/Felipeatv/POO</t>
+  </si>
+  <si>
+    <t>https://github.com/martinpardo88/CalculadoraTaller</t>
+  </si>
+  <si>
+    <t>https://github.com/tanqque/calculadora</t>
+  </si>
+  <si>
+    <t>https://github.com/SebasSlzr/Calculadora</t>
+  </si>
+  <si>
+    <t>https://github.com/Manuela188/CalculadoraSwingg</t>
+  </si>
+  <si>
+    <t>https://github.com/AndresM15/Calculadora</t>
+  </si>
+  <si>
+    <t>https://github.com/marianaAB22/calculadora</t>
+  </si>
+  <si>
+    <t>https://github.com/AndresCastril/Calculadora</t>
+  </si>
+  <si>
+    <t>TALLER 1</t>
+  </si>
+  <si>
+    <t>TALLER 2</t>
+  </si>
+  <si>
+    <t>PARCIAL 1</t>
+  </si>
+  <si>
+    <t>CORTE 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -250,6 +296,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Liberation Serif"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Liberation Sans"/>
     </font>
   </fonts>
   <fills count="11">
@@ -314,7 +366,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -352,8 +404,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
@@ -374,8 +454,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -383,8 +464,30 @@
     <xf numFmtId="0" fontId="16" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="20" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="3" xfId="20" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="20">
+  <cellStyles count="21">
     <cellStyle name="Accent" xfId="2" xr:uid="{AA8940C1-1436-411B-BD35-D1774FC63F6F}"/>
     <cellStyle name="Accent 1" xfId="3" xr:uid="{712E7C4D-D147-40FE-B0D0-961123CFD01A}"/>
     <cellStyle name="Accent 2" xfId="4" xr:uid="{0858328A-2DFB-42C5-916C-18065C85DB1C}"/>
@@ -397,6 +500,7 @@
     <cellStyle name="Heading" xfId="11" xr:uid="{1DFE8985-030D-45BB-B57A-FA7B7F6FDCAD}"/>
     <cellStyle name="Heading 1" xfId="12" xr:uid="{EDEA7668-7D09-42B9-AE89-7842AFC72EED}"/>
     <cellStyle name="Heading 2" xfId="13" xr:uid="{3306D5BB-7A52-4509-8CE3-08C04165FA5D}"/>
+    <cellStyle name="Hipervínculo" xfId="20" builtinId="8"/>
     <cellStyle name="Hyperlink" xfId="14" xr:uid="{609C1B5A-78CE-460F-BEFA-B703EC6F001E}"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -736,415 +840,479 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90BA46CD-EB98-4F66-9368-06C4BB06F7C9}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="74.85546875" customWidth="1"/>
-    <col min="7" max="7" width="41.85546875" customWidth="1"/>
-    <col min="8" max="8" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="74.88671875" customWidth="1"/>
+    <col min="3" max="3" width="41.88671875" customWidth="1"/>
+    <col min="4" max="4" width="37.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2">
+        <v>1053775555</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="E2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="I2" s="10">
+        <f>SUM(F2:H2)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2">
+        <v>1086578206</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1020</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2">
-        <v>1053775555</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10202300194</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="I3" s="10">
+        <f t="shared" ref="I3:I15" si="0">SUM(F3:H3)</f>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2">
+        <v>1055753013</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="D4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="E4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="I4" s="10">
+        <f t="shared" si="0"/>
+        <v>3.9000000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2">
+        <v>1054398670</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1020</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1086578206</v>
-      </c>
-      <c r="E3" s="2">
-        <v>10202400234</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="D5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I5" s="10">
+        <f t="shared" si="0"/>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2">
+        <v>1092851902</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2">
+      <c r="D6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>1020</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1055753013</v>
-      </c>
-      <c r="E4" s="2">
-        <v>10202350224</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="I6" s="10">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2">
+        <v>1002592707</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2">
+      <c r="D7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="I7" s="10">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2">
+        <v>1002590841</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>1020</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1054398670</v>
-      </c>
-      <c r="E5" s="2">
-        <v>10202350222</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2">
+      <c r="D8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="I8" s="10">
+        <f t="shared" si="0"/>
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2">
+        <v>1054857310</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="H9" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="I9" s="10">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2">
+        <v>1059237995</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="H10" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="I10" s="10">
+        <f t="shared" si="0"/>
+        <v>3.9000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="2">
+        <v>1055359130</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="H11" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <v>1020</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1092851902</v>
-      </c>
-      <c r="E6" s="2">
-        <v>10202300190</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1020</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1002592707</v>
-      </c>
-      <c r="E7" s="2">
-        <v>10202200142</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1020</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1002590841</v>
-      </c>
-      <c r="E8" s="2">
-        <v>10202200146</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1020</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1054857310</v>
-      </c>
-      <c r="E9" s="2">
-        <v>10202300179</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="2" t="s">
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2">
+        <v>1055754140</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1020</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1059237995</v>
-      </c>
-      <c r="E10" s="2">
-        <v>10202350227</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="D12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="E12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="0"/>
+        <v>3.3000000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2">
+        <v>1054859161</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1020</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1055359130</v>
-      </c>
-      <c r="E11" s="2">
-        <v>10202350223</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="D13" s="9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1020</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1055754140</v>
-      </c>
-      <c r="E12" s="2">
-        <v>10202400274</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="E13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="H13" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="I13" s="10">
+        <f t="shared" si="0"/>
+        <v>3.3000000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2">
+        <v>1054398153</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="D14" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1030</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1054859161</v>
-      </c>
-      <c r="E13" s="2">
-        <v>10302300047</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="E14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="H14" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="I14" s="10">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2">
+        <v>1054858758</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="D15" s="9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1030</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1054398153</v>
-      </c>
-      <c r="E14" s="2">
-        <v>10302300044</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2">
-        <v>7282</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1054858758</v>
-      </c>
-      <c r="E15" s="2">
-        <v>72822400340</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>39</v>
+      <c r="E15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0</v>
+      </c>
+      <c r="I15" s="10">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{819AF998-BDEC-4A8A-A9C2-90D8CB360525}"/>
+  <autoFilter ref="A1:D15" xr:uid="{819AF998-BDEC-4A8A-A9C2-90D8CB360525}"/>
+  <hyperlinks>
+    <hyperlink ref="E14" r:id="rId1" xr:uid="{9CDFB50B-7225-47B3-AC74-0E5B68D7249A}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{798AA0EF-EC85-4D5C-91C6-76A34149B862}"/>
+    <hyperlink ref="E9" r:id="rId3" xr:uid="{21409F25-7D8A-4754-8293-201306A766C4}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{92FB2C64-CCC7-45B6-84F8-BE258D6DAA45}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{B62F45A1-66A6-4B3E-93E2-D18DE3041ED0}"/>
+    <hyperlink ref="E15" r:id="rId6" xr:uid="{88EA6FED-7967-4B0E-A763-3833D7004BD5}"/>
+    <hyperlink ref="E4" r:id="rId7" xr:uid="{2CDFE706-173D-4219-88EA-BC458EFA3D4B}"/>
+    <hyperlink ref="E13" r:id="rId8" xr:uid="{489C8C12-2E98-4009-964A-48D0DF419657}"/>
+    <hyperlink ref="E8" r:id="rId9" xr:uid="{FBFCB168-04B9-456E-B1E1-0FDEE5FB8489}"/>
+    <hyperlink ref="E12" r:id="rId10" xr:uid="{5430A413-6A5E-45DC-BA46-18351B9F4A50}"/>
+    <hyperlink ref="E11" r:id="rId11" xr:uid="{163F9EDF-7D83-4976-A273-D19F051356FC}"/>
+  </hyperlinks>
   <pageMargins left="0" right="0" top="0.39370000000000005" bottom="0.39370000000000005" header="0" footer="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>

--- a/Curso Programacion Orientada a Objetos/ESTUDIANTES POO.xlsx
+++ b/Curso Programacion Orientada a Objetos/ESTUDIANTES POO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaaguir\Documents\Desarrollo\Curso Programacion Orientada a Objetos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DAF52D-0F1E-43B5-8907-8C32DFAB39BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4021483-AA24-494E-BD9E-6E4CB273961F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D9F3E1F8-A18D-4094-9AE0-0BA583254CE6}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>Documento de Identidad</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>CORTE 1</t>
+  </si>
+  <si>
+    <t>MINI PROYECTO</t>
   </si>
 </sst>
 </file>
@@ -456,7 +459,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -486,6 +489,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Accent" xfId="2" xr:uid="{AA8940C1-1436-411B-BD35-D1774FC63F6F}"/>
@@ -840,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90BA46CD-EB98-4F66-9368-06C4BB06F7C9}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -853,9 +857,10 @@
     <col min="3" max="3" width="41.88671875" customWidth="1"/>
     <col min="4" max="4" width="37.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.44140625" customWidth="1"/>
+    <col min="10" max="10" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -883,8 +888,11 @@
       <c r="I1" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>1053775555</v>
       </c>
@@ -913,8 +921,11 @@
         <f>SUM(F2:H2)</f>
         <v>3.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="11">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>1086578206</v>
       </c>
@@ -943,8 +954,11 @@
         <f t="shared" ref="I3:I15" si="0">SUM(F3:H3)</f>
         <v>3.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="11">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <v>1055753013</v>
       </c>
@@ -973,8 +987,11 @@
         <f t="shared" si="0"/>
         <v>3.9000000000000004</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="11">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>1054398670</v>
       </c>
@@ -1001,8 +1018,11 @@
         <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>1092851902</v>
       </c>
@@ -1031,8 +1051,11 @@
         <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>1002592707</v>
       </c>
@@ -1059,8 +1082,11 @@
         <f t="shared" si="0"/>
         <v>3.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>1002590841</v>
       </c>
@@ -1089,8 +1115,11 @@
         <f t="shared" si="0"/>
         <v>3.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="11">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>1054857310</v>
       </c>
@@ -1119,8 +1148,11 @@
         <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>1059237995</v>
       </c>
@@ -1147,8 +1179,11 @@
         <f t="shared" si="0"/>
         <v>3.9000000000000004</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
         <v>1055359130</v>
       </c>
@@ -1177,8 +1212,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="11">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="2">
         <v>1055754140</v>
       </c>
@@ -1207,8 +1245,11 @@
         <f t="shared" si="0"/>
         <v>3.3000000000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>1054859161</v>
       </c>
@@ -1237,8 +1278,11 @@
         <f t="shared" si="0"/>
         <v>3.3000000000000003</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="11">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <v>1054398153</v>
       </c>
@@ -1267,8 +1311,11 @@
         <f t="shared" si="0"/>
         <v>2.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <v>1054858758</v>
       </c>
@@ -1296,6 +1343,9 @@
       <c r="I15" s="10">
         <f t="shared" si="0"/>
         <v>0.2</v>
+      </c>
+      <c r="J15" s="11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1314,6 +1364,7 @@
     <hyperlink ref="E11" r:id="rId11" xr:uid="{163F9EDF-7D83-4976-A273-D19F051356FC}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0.39370000000000005" bottom="0.39370000000000005" header="0" footer="0"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/Curso Programacion Orientada a Objetos/ESTUDIANTES POO.xlsx
+++ b/Curso Programacion Orientada a Objetos/ESTUDIANTES POO.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaaguir\Documents\Desarrollo\Curso Programacion Orientada a Objetos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4021483-AA24-494E-BD9E-6E4CB273961F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4AD5A1-4370-415D-8230-1CE1B7DE8168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D9F3E1F8-A18D-4094-9AE0-0BA583254CE6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{D9F3E1F8-A18D-4094-9AE0-0BA583254CE6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CORTE1" sheetId="1" r:id="rId1"/>
+    <sheet name="CORTE2" sheetId="2" r:id="rId2"/>
+    <sheet name="CORTE3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$15</definedName>
-    <definedName name="HTML_1">Sheet1!#REF!</definedName>
-    <definedName name="HTML_2">Sheet1!$A$1:$D$15</definedName>
-    <definedName name="HTML_all">Sheet1!$A$1:$D$15</definedName>
-    <definedName name="HTML_tables">Sheet1!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CORTE1!$A$1:$D$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CORTE2!$A$1:$D$15</definedName>
+    <definedName name="HTML_1" localSheetId="1">CORTE2!#REF!</definedName>
+    <definedName name="HTML_1">CORTE1!#REF!</definedName>
+    <definedName name="HTML_2" localSheetId="1">CORTE2!$A$1:$D$15</definedName>
+    <definedName name="HTML_2">CORTE1!$A$1:$D$15</definedName>
+    <definedName name="HTML_all" localSheetId="1">CORTE2!$A$1:$D$15</definedName>
+    <definedName name="HTML_all">CORTE1!$A$1:$D$15</definedName>
+    <definedName name="HTML_tables" localSheetId="1">CORTE2!#REF!</definedName>
+    <definedName name="HTML_tables">CORTE1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="69">
   <si>
     <t>Documento de Identidad</t>
   </si>
@@ -196,6 +203,57 @@
   </si>
   <si>
     <t>MINI PROYECTO</t>
+  </si>
+  <si>
+    <t>TALLER 3</t>
+  </si>
+  <si>
+    <t>PACIAL 2</t>
+  </si>
+  <si>
+    <t>No me envio link del repositorio</t>
+  </si>
+  <si>
+    <t>https://github.com/Palots</t>
+  </si>
+  <si>
+    <t>https://github.com/JuanCa240</t>
+  </si>
+  <si>
+    <t>NOTA</t>
+  </si>
+  <si>
+    <t>PRESENTACION PROYECTO</t>
+  </si>
+  <si>
+    <t>PARCIAL CORTE 3</t>
+  </si>
+  <si>
+    <t>ULTIMO DIA TALLERES</t>
+  </si>
+  <si>
+    <t>REVISION NOTA CORTE 3</t>
+  </si>
+  <si>
+    <t>10 DE DICIEMBRE</t>
+  </si>
+  <si>
+    <t>3 DE DICIEMBRE</t>
+  </si>
+  <si>
+    <t>PARCIAL 3</t>
+  </si>
+  <si>
+    <t>TALLERES</t>
+  </si>
+  <si>
+    <t>https://github.com/CannibalishToast</t>
+  </si>
+  <si>
+    <t>NOTA CORTE</t>
+  </si>
+  <si>
+    <t>EVENTO IA</t>
   </si>
 </sst>
 </file>
@@ -489,7 +547,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="3" xfId="20" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Accent" xfId="2" xr:uid="{AA8940C1-1436-411B-BD35-D1774FC63F6F}"/>
@@ -846,18 +906,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90BA46CD-EB98-4F66-9368-06C4BB06F7C9}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
-    <col min="2" max="2" width="74.88671875" customWidth="1"/>
-    <col min="3" max="3" width="41.88671875" customWidth="1"/>
-    <col min="4" max="4" width="37.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.44140625" customWidth="1"/>
-    <col min="10" max="10" width="21.21875" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="74.85546875" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.42578125" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -921,7 +981,7 @@
         <f>SUM(F2:H2)</f>
         <v>3.5</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="10">
         <v>4.5</v>
       </c>
     </row>
@@ -954,7 +1014,7 @@
         <f t="shared" ref="I3:I15" si="0">SUM(F3:H3)</f>
         <v>3.6</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="10">
         <v>4.5</v>
       </c>
     </row>
@@ -987,7 +1047,7 @@
         <f t="shared" si="0"/>
         <v>3.9000000000000004</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="10">
         <v>4.8</v>
       </c>
     </row>
@@ -1018,7 +1078,7 @@
         <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="10">
         <v>4</v>
       </c>
     </row>
@@ -1051,7 +1111,7 @@
         <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="10">
         <v>5</v>
       </c>
     </row>
@@ -1082,7 +1142,7 @@
         <f t="shared" si="0"/>
         <v>3.6</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="10">
         <v>1</v>
       </c>
     </row>
@@ -1115,7 +1175,7 @@
         <f t="shared" si="0"/>
         <v>3.1</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="10">
         <v>4.5</v>
       </c>
     </row>
@@ -1148,7 +1208,7 @@
         <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="10">
         <v>5</v>
       </c>
     </row>
@@ -1179,7 +1239,7 @@
         <f t="shared" si="0"/>
         <v>3.9000000000000004</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="10">
         <v>1</v>
       </c>
     </row>
@@ -1212,7 +1272,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="10">
         <v>4.5</v>
       </c>
     </row>
@@ -1245,7 +1305,7 @@
         <f t="shared" si="0"/>
         <v>3.3000000000000003</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="10">
         <v>5</v>
       </c>
     </row>
@@ -1278,7 +1338,7 @@
         <f t="shared" si="0"/>
         <v>3.3000000000000003</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="10">
         <v>4.2</v>
       </c>
     </row>
@@ -1311,7 +1371,7 @@
         <f t="shared" si="0"/>
         <v>2.6</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="10">
         <v>5</v>
       </c>
     </row>
@@ -1344,7 +1404,7 @@
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="10">
         <v>1</v>
       </c>
     </row>
@@ -1370,4 +1430,1024 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5378B6DD-8149-46B3-98C6-53E267AB138A}">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="74.85546875" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="2">
+        <v>1053775555</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="G2" s="10">
+        <v>5</v>
+      </c>
+      <c r="H2" s="10">
+        <v>5</v>
+      </c>
+      <c r="I2" s="10">
+        <v>5</v>
+      </c>
+      <c r="J2" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="K2" s="10">
+        <f>+F2*0.3+((G2+H2+I2)/3)*0.3+J2*0.4</f>
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="2">
+        <v>1086578206</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="G3" s="10">
+        <v>5</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="K3" s="10">
+        <f>+F3*0.3+((G3+H3+I3)/3)*0.3+J3*0.4</f>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="2">
+        <v>1055753013</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="G4" s="10">
+        <v>5</v>
+      </c>
+      <c r="H4" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="I4" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="J4" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="K4" s="10">
+        <f t="shared" ref="K4:K15" si="0">+F4*0.3+((G4+H4+I4)/3)*0.3+J4*0.4</f>
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2">
+        <v>1054398670</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="10">
+        <v>4</v>
+      </c>
+      <c r="G5" s="10">
+        <v>5</v>
+      </c>
+      <c r="H5" s="10">
+        <v>5</v>
+      </c>
+      <c r="I5" s="10">
+        <v>5</v>
+      </c>
+      <c r="J5" s="10">
+        <v>2</v>
+      </c>
+      <c r="K5" s="10">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="2">
+        <v>1092851902</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="10">
+        <v>5</v>
+      </c>
+      <c r="G6" s="10">
+        <v>5</v>
+      </c>
+      <c r="H6" s="10">
+        <v>5</v>
+      </c>
+      <c r="I6" s="10">
+        <v>5</v>
+      </c>
+      <c r="J6" s="10">
+        <v>4</v>
+      </c>
+      <c r="K6" s="10">
+        <f t="shared" si="0"/>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="2">
+        <v>1002592707</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="10">
+        <v>3</v>
+      </c>
+      <c r="G7" s="10">
+        <v>5</v>
+      </c>
+      <c r="H7" s="10">
+        <v>5</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="K7" s="10">
+        <f t="shared" si="0"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="2">
+        <v>1002590841</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <v>5</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10">
+        <v>3</v>
+      </c>
+      <c r="K8" s="10">
+        <f t="shared" si="0"/>
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="2">
+        <v>1054857310</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="10">
+        <v>5</v>
+      </c>
+      <c r="G9" s="10">
+        <v>5</v>
+      </c>
+      <c r="H9" s="10">
+        <v>5</v>
+      </c>
+      <c r="I9" s="10">
+        <v>5</v>
+      </c>
+      <c r="J9" s="10">
+        <v>3</v>
+      </c>
+      <c r="K9" s="10">
+        <f t="shared" si="0"/>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="2">
+        <v>1059237995</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="G10" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="H10" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="I10" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="J10" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="K10" s="10">
+        <f t="shared" si="0"/>
+        <v>2.9000000000000004</v>
+      </c>
+      <c r="L10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="2">
+        <v>1055359130</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="G11" s="10">
+        <v>5</v>
+      </c>
+      <c r="H11" s="10">
+        <v>5</v>
+      </c>
+      <c r="I11" s="10">
+        <v>5</v>
+      </c>
+      <c r="J11" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="K11" s="10">
+        <f t="shared" si="0"/>
+        <v>3.8499999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="2">
+        <v>1055754140</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="10">
+        <v>5</v>
+      </c>
+      <c r="G12" s="10">
+        <v>5</v>
+      </c>
+      <c r="H12" s="10">
+        <v>5</v>
+      </c>
+      <c r="I12" s="10">
+        <v>5</v>
+      </c>
+      <c r="J12" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="K12" s="10">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="2">
+        <v>1054859161</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="G13" s="10">
+        <v>5</v>
+      </c>
+      <c r="H13" s="10">
+        <v>5</v>
+      </c>
+      <c r="I13" s="10">
+        <v>5</v>
+      </c>
+      <c r="J13" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="K13" s="10">
+        <f t="shared" si="0"/>
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="2">
+        <v>1054398153</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="10">
+        <v>5</v>
+      </c>
+      <c r="G14" s="10">
+        <v>5</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0</v>
+      </c>
+      <c r="J14" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="K14" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="2">
+        <v>1054858758</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="10">
+        <v>1</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0</v>
+      </c>
+      <c r="I15" s="10">
+        <v>0</v>
+      </c>
+      <c r="J15" s="10">
+        <v>0</v>
+      </c>
+      <c r="K15" s="10">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D15" xr:uid="{819AF998-BDEC-4A8A-A9C2-90D8CB360525}"/>
+  <hyperlinks>
+    <hyperlink ref="E14" r:id="rId1" xr:uid="{2182BACC-3B4F-4952-BAD3-C1E576B41084}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{01FEBD75-19D6-4148-A524-45CBA034A709}"/>
+    <hyperlink ref="E9" r:id="rId3" xr:uid="{8E3A11E3-E5D4-4A3C-9D5F-4873DC5917EE}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{94EC7D69-9105-499C-B5B6-2A4FE3DA79E8}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{451F3ABB-27BD-48C6-8CF2-CCFFF68E2571}"/>
+    <hyperlink ref="E15" r:id="rId6" xr:uid="{CAE82816-76E2-4903-9FC0-97D8659B66A8}"/>
+    <hyperlink ref="E4" r:id="rId7" xr:uid="{D7BE7DCB-35E6-4574-8564-8041F3F237D1}"/>
+    <hyperlink ref="E13" r:id="rId8" xr:uid="{71EC7106-7514-495E-895C-C3A09F7B3659}"/>
+    <hyperlink ref="E8" r:id="rId9" xr:uid="{2CC33516-440A-420C-991A-84CF5B4208C6}"/>
+    <hyperlink ref="E12" r:id="rId10" xr:uid="{F1CC6F93-C90E-4579-A30C-896D9D6AABDD}"/>
+    <hyperlink ref="E11" r:id="rId11" xr:uid="{AE613656-5EB7-4ECB-8D80-D4DF39361DBF}"/>
+    <hyperlink ref="D10" r:id="rId12" xr:uid="{2EF5B839-C832-4C46-AD74-A9F235F3BE5E}"/>
+    <hyperlink ref="E7" r:id="rId13" xr:uid="{BAFFBAB1-CEB6-4AD9-A7C4-718113070DC9}"/>
+    <hyperlink ref="E5" r:id="rId14" xr:uid="{F3E01A6E-0D2F-40C8-B1BD-E4EA5AB53B62}"/>
+    <hyperlink ref="D11" r:id="rId15" xr:uid="{4E4FB2EC-1EA6-4DB7-A58B-B3D891D370A7}"/>
+  </hyperlinks>
+  <pageMargins left="0" right="0" top="0.39370000000000005" bottom="0.39370000000000005" header="0" footer="0"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A7FD45-AC12-4BFC-931B-A4ED54D85A55}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="6" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="10">
+        <v>5</v>
+      </c>
+      <c r="E2" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2" s="10">
+        <v>5</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0</v>
+      </c>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="10">
+        <v>5</v>
+      </c>
+      <c r="E3" s="10">
+        <v>5</v>
+      </c>
+      <c r="F3" s="10">
+        <v>5</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="10">
+        <v>5</v>
+      </c>
+      <c r="E4" s="10">
+        <v>5</v>
+      </c>
+      <c r="F4" s="10">
+        <v>5</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="10">
+        <v>5</v>
+      </c>
+      <c r="E5" s="10">
+        <v>4</v>
+      </c>
+      <c r="F5" s="10">
+        <v>5</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="10">
+        <v>5</v>
+      </c>
+      <c r="E6" s="10">
+        <v>4</v>
+      </c>
+      <c r="F6" s="10">
+        <v>4</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="10">
+        <v>5</v>
+      </c>
+      <c r="E7" s="10">
+        <v>4</v>
+      </c>
+      <c r="F7" s="10">
+        <v>3</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="10">
+        <v>5</v>
+      </c>
+      <c r="E8" s="10">
+        <v>5</v>
+      </c>
+      <c r="F8" s="10">
+        <v>4</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="10">
+        <v>5</v>
+      </c>
+      <c r="E9" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="F9" s="10">
+        <v>5</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="10">
+        <v>5</v>
+      </c>
+      <c r="E10" s="10">
+        <v>5</v>
+      </c>
+      <c r="F10" s="10">
+        <v>5</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="10">
+        <v>5</v>
+      </c>
+      <c r="E11" s="10">
+        <v>5</v>
+      </c>
+      <c r="F11" s="10">
+        <v>5</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="10">
+        <v>5</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10">
+        <v>5</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="10">
+        <v>5</v>
+      </c>
+      <c r="E13" s="10">
+        <v>4</v>
+      </c>
+      <c r="F13" s="10">
+        <v>5</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="10">
+        <v>5</v>
+      </c>
+      <c r="E14" s="10">
+        <v>5</v>
+      </c>
+      <c r="F14" s="10">
+        <v>4</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0</v>
+      </c>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C14" r:id="rId1" xr:uid="{7BA82C82-9B05-4EA5-9B74-B19D2E66A2CD}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{54DE8276-AB73-4C25-8E22-E87ED40D84F2}"/>
+    <hyperlink ref="C9" r:id="rId3" xr:uid="{C579C543-657E-47CE-BA4C-BC90FA469199}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{3E251908-DC34-4CA0-92B5-0F53F561F14F}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{F0FFCAD1-227C-467C-BBE7-E9A0FCC8659F}"/>
+    <hyperlink ref="C15" r:id="rId6" xr:uid="{A6C01221-82B7-4F3D-8192-E477FD65D4AD}"/>
+    <hyperlink ref="C4" r:id="rId7" xr:uid="{B1920A50-91FB-46F5-A1B4-301EB7299D7E}"/>
+    <hyperlink ref="C13" r:id="rId8" xr:uid="{A51FC377-B966-40BA-B13C-3641E1781DA1}"/>
+    <hyperlink ref="C8" r:id="rId9" xr:uid="{2CC814D4-A17E-4CDB-9ACD-2863C4FAEB42}"/>
+    <hyperlink ref="C12" r:id="rId10" xr:uid="{88697295-5E87-4C30-B780-17281911F72F}"/>
+    <hyperlink ref="C11" r:id="rId11" xr:uid="{7A6BBF65-F74C-4599-A9E7-B03E15492835}"/>
+    <hyperlink ref="B10" r:id="rId12" xr:uid="{6B4D1565-38E2-4DA8-9F62-A4B41A86A69F}"/>
+    <hyperlink ref="C7" r:id="rId13" xr:uid="{9DDAFD4E-98B4-473F-90DB-8C6B773691D7}"/>
+    <hyperlink ref="C5" r:id="rId14" xr:uid="{649C6A7F-CD83-43B5-B2C4-E30E4FD58E4D}"/>
+    <hyperlink ref="B11" r:id="rId15" xr:uid="{DB7EC03A-219B-4F77-A5C5-3E8F88767F3F}"/>
+    <hyperlink ref="C10" r:id="rId16" xr:uid="{ED33E439-F332-4EDD-9EAC-604F74637136}"/>
+    <hyperlink ref="B12" r:id="rId17" xr:uid="{51C0CA19-6AE8-4D20-B685-A9F981D61C75}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>